--- a/SynapseITS EDI OEM Benchmarking Dummy.xlsx
+++ b/SynapseITS EDI OEM Benchmarking Dummy.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cadenlin/PycharmProjects/heatmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D760308-1B06-5C44-A66D-726FF5501C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EB4600-DE4E-E14A-A3B0-B0EBD9D89448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{EC3F2C6E-EBEB-D241-B7D2-0FE322E63B24}"/>
+    <workbookView xWindow="28800" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{EC3F2C6E-EBEB-D241-B7D2-0FE322E63B24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>NEMA</t>
   </si>
@@ -55,12 +56,115 @@
   <si>
     <t>Cum3</t>
   </si>
+  <si>
+    <t>Sales channel</t>
+  </si>
+  <si>
+    <t>OEM</t>
+  </si>
+  <si>
+    <t>Distributor</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Top 10 Customers</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Western Systems</t>
+  </si>
+  <si>
+    <t>Carrier &amp; Gable</t>
+  </si>
+  <si>
+    <t>Paradigm Traffic Systems</t>
+  </si>
+  <si>
+    <t>Trafficware Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange Traffic </t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>TrafficControl Corporation</t>
+  </si>
+  <si>
+    <t>MoboTrex</t>
+  </si>
+  <si>
+    <t>Econolite</t>
+  </si>
+  <si>
+    <t>McCain</t>
+  </si>
+  <si>
+    <t>Top 10 OEMs</t>
+  </si>
+  <si>
+    <t>Flir Systems</t>
+  </si>
+  <si>
+    <t>Econolite Canada</t>
+  </si>
+  <si>
+    <t>Product type</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>ATC conflict monitors</t>
+  </si>
+  <si>
+    <t>ATC ancillary components</t>
+  </si>
+  <si>
+    <t>Vehicle detection systems</t>
+  </si>
+  <si>
+    <t>Non-ATC ancillary components</t>
+  </si>
+  <si>
+    <t>Non-ATC conflict monitors</t>
+  </si>
+  <si>
+    <t>Rail</t>
+  </si>
+  <si>
+    <t>AVI</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Conflict monitors</t>
+  </si>
+  <si>
+    <t>CalTrans</t>
+  </si>
+  <si>
+    <t>ITS &amp; Other</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,6 +177,13 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,14 +203,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1043,6 +1158,4319 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9833660287297607E-2"/>
+          <c:y val="9.008043008708419E-2"/>
+          <c:w val="0.88753717782980912"/>
+          <c:h val="0.86386993879286222"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distributor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OEM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>McCain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>6.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Econolite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MoboTrex</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TrafficControl Corporation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Orange Traffic </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trafficware Group</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paradigm Traffic Systems</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carrier &amp; Gable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$12:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Western Systems</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$14:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>McCain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>5.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Econolite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$17:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MoboTrex</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$18:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>1.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trafficware Group</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$19:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Econolite Canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$20:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flir Systems</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$21:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sales channel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Customer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top 10 Customers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Top 10 OEMs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$22:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-FCBD-7146-808E-6316DD3EB06A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="27594975"/>
+        <c:axId val="27596703"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="27594975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27596703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="27596703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27594975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6014123036126711E-2"/>
+          <c:y val="7.6631734698385828E-2"/>
+          <c:w val="0.8429384199112"/>
+          <c:h val="0.84985130018131594"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Non-ATC conflict monitors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Product type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Application</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1582-7D46-94ED-3D43A7564444}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vehicle detection systems</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Product type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Application</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1582-7D46-94ED-3D43A7564444}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Non-ATC ancillary components</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Product type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Application</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1582-7D46-94ED-3D43A7564444}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ATC ancillary components</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Product type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Application</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1582-7D46-94ED-3D43A7564444}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Product type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Application</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1582-7D46-94ED-3D43A7564444}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ATC conflict monitors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Product type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Application</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1582-7D46-94ED-3D43A7564444}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Traffic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-1582-7D46-94ED-3D43A7564444}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Product type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Application</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1582-7D46-94ED-3D43A7564444}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Access</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Product type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Application</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1582-7D46-94ED-3D43A7564444}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0117110023778737E-2"/>
+                  <c:y val="2.7504918399187633E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-1582-7D46-94ED-3D43A7564444}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Product type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Application</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1582-7D46-94ED-3D43A7564444}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11294656089043471"/>
+                  <c:y val="2.7097549453997524E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-1582-7D46-94ED-3D43A7564444}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$K$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Product type</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Application</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1582-7D46-94ED-3D43A7564444}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="225513023"/>
+        <c:axId val="226328415"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="225513023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226328415"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="226328415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225513023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10908438748798124"/>
+          <c:y val="0.11178764715528311"/>
+          <c:w val="0.7893472815176229"/>
+          <c:h val="0.78391861833206566"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conflict monitors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8478-E341-A6C1-72D89E2C1B03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CalTrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conflict monitors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8478-E341-A6C1-72D89E2C1B03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conflict monitors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8478-E341-A6C1-72D89E2C1B03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Q$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ITS &amp; Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conflict monitors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8478-E341-A6C1-72D89E2C1B03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="956707711"/>
+        <c:axId val="956506111"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="956707711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956506111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="956506111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="956707711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1083,7 +5511,1642 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1627,6 +7690,908 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB3F83D-7B71-459C-1661-511DE4F68BFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03BF68B8-0230-F262-766F-5C7C4439B17D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2146300" y="5346700"/>
+          <a:ext cx="1282700" cy="831850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500"/>
+            <a:t>$36.4m</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126ABA98-ED55-FF43-A3B0-F883B29F1DF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="5359400"/>
+          <a:ext cx="1282700" cy="831850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500"/>
+            <a:t>$36.4m</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E0A96C-8CF1-8547-8C86-C3A5FAD48F94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10922000" y="5346700"/>
+          <a:ext cx="1282700" cy="831850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500"/>
+            <a:t>$14.3m</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449035</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>181430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>507999</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Chart 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FDEBAE-09AC-7BC5-F88C-3DCCB9EB1966}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1033183</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2314388</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>36978</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3AE1727-3913-B941-8229-C351B95EF3C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12799359" y="1631576"/>
+          <a:ext cx="1281205" cy="825873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500"/>
+            <a:t>$36.4m</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>186765</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>108323</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F11BF8-BA95-304B-A659-B7A23B67D9E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15852589" y="1628588"/>
+          <a:ext cx="1281205" cy="825873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500"/>
+            <a:t>$36.4m</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>522941</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>37352</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="29" name="Chart 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60FAD666-415B-E7A4-01D6-568C5EBCFC87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>510988</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>478117</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89376D54-C2B3-6C4A-907A-F8F5D78FF503}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20024164" y="1362635"/>
+          <a:ext cx="3112247" cy="841189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Total</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> addressable market: $15-20m</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Implied EDI market share: 80-85%</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.60046</cdr:x>
+      <cdr:y>0.03488</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.71642</cdr:x>
+      <cdr:y>0.12274</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03BF68B8-0230-F262-766F-5C7C4439B17D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6642100" y="330200"/>
+          <a:ext cx="1282700" cy="831850"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500"/>
+            <a:t>$20.4m</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1928,7 +8893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8531F58-4C7B-B649-8C47-C170AC1B15E8}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2141,4 +9106,433 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8964C298-B31B-C345-BD36-AFB32F284176}">
+  <dimension ref="A1:R32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="10" max="10" width="31.1640625" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1"/>
+    <col min="18" max="18" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>22.6</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2">
+        <v>22568000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3">
+        <v>13832000</v>
+      </c>
+      <c r="G3">
+        <v>36400000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
+        <f>SUM(E16:E22)</f>
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:K7">
+    <sortCondition descending="1" ref="K7"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SynapseITS EDI OEM Benchmarking Dummy.xlsx
+++ b/SynapseITS EDI OEM Benchmarking Dummy.xlsx
@@ -8,14 +8,55 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cadenlin/PycharmProjects/heatmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EB4600-DE4E-E14A-A3B0-B0EBD9D89448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180F6A2A-3532-834B-A189-01B93C3DAA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="480" windowWidth="38400" windowHeight="21120" activeTab="1" xr2:uid="{EC3F2C6E-EBEB-D241-B7D2-0FE322E63B24}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{EC3F2C6E-EBEB-D241-B7D2-0FE322E63B24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$A$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet3!$B$11:$D$11</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet3!$B$2:$D$2</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet3!$B$3:$D$3</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet3!$B$4:$D$4</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet3!$B$5:$D$5</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet3!$B$6:$D$6</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet3!$B$7:$D$7</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet3!$B$8:$D$8</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet3!$B$9:$D$9</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet3!$A$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$A$3</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet3!$A$11</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet3!$A$3</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet3!$A$4</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet3!$A$5</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet3!$A$6</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet3!$A$7</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet3!$A$8</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet3!$A$9</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet3!$B$10:$D$10</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet3!$B$11:$D$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$A$4</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet3!$B$2:$D$2</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet3!$B$3:$D$3</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet3!$B$4:$D$4</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet3!$B$5:$D$5</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet3!$B$6:$D$6</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet3!$B$7:$D$7</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet3!$B$8:$D$8</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Sheet3!$B$9:$D$9</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$A$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet3!$A$6</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet3!$A$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet3!$A$8</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet3!$A$9</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet3!$B$10:$D$10</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>NEMA</t>
   </si>
@@ -155,6 +196,39 @@
   <si>
     <t>ITS &amp; Other</t>
   </si>
+  <si>
+    <t>Component 1</t>
+  </si>
+  <si>
+    <t>Component 2</t>
+  </si>
+  <si>
+    <t>Component 3</t>
+  </si>
+  <si>
+    <t>Component X</t>
+  </si>
+  <si>
+    <t>Component Y</t>
+  </si>
+  <si>
+    <t>Component Z</t>
+  </si>
+  <si>
+    <t>Component A</t>
+  </si>
+  <si>
+    <t>Component B</t>
+  </si>
+  <si>
+    <t>Component C</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
 </sst>
 </file>
 
@@ -207,11 +281,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -5471,6 +5548,2372 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Expense Breakdown for ATC /</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> NEMA / Caltrans Cabinets</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BB55-874B-90EE-47B2098D01A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BB55-874B-90EE-47B2098D01A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BB55-874B-90EE-47B2098D01A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BB55-874B-90EE-47B2098D01A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BB55-874B-90EE-47B2098D01A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BB55-874B-90EE-47B2098D01A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BB55-874B-90EE-47B2098D01A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$10:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BB55-874B-90EE-47B2098D01A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-BB55-874B-90EE-47B2098D01A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="244229791"/>
+        <c:axId val="244231519"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="244229791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244231519"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="244231519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244229791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Revenue Breakdown for ATC / NEMA / Caltrans Cabinets</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$P$1:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FAF-F44A-85DC-2B0504F5DD8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$P$1:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0FAF-F44A-85DC-2B0504F5DD8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-0FAF-F44A-85DC-2B0504F5DD8B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$P$1:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$5:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0FAF-F44A-85DC-2B0504F5DD8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$O$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$P$1:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0FAF-F44A-85DC-2B0504F5DD8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$P$1:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$7:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0FAF-F44A-85DC-2B0504F5DD8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$O$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component Z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$P$1:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$8:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0FAF-F44A-85DC-2B0504F5DD8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$P$1:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$9:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0FAF-F44A-85DC-2B0504F5DD8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$P$1:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$10:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0FAF-F44A-85DC-2B0504F5DD8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$O$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Component C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$P$1:$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ATC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NEMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caltrans</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$11:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0FAF-F44A-85DC-2B0504F5DD8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="244288975"/>
+        <c:axId val="244290703"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="244288975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244290703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="244290703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244288975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5631,6 +8074,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -7147,6 +9670,1016 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8594,6 +12127,83 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F61F3B-29C9-75EC-8A5F-8F246B1C8FBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF709352-4272-3474-5FE8-2739B436F2D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9112,7 +12722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8964C298-B31B-C345-BD36-AFB32F284176}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="E12" sqref="E12:E13"/>
     </sheetView>
   </sheetViews>
@@ -9535,4 +13145,187 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEF7A3F-BA52-5646-80FA-CC9D25350988}">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="O1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SynapseITS EDI OEM Benchmarking Dummy.xlsx
+++ b/SynapseITS EDI OEM Benchmarking Dummy.xlsx
@@ -8,52 +8,53 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cadenlin/PycharmProjects/heatmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180F6A2A-3532-834B-A189-01B93C3DAA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6173156C-E9B3-C245-9AAA-A0206F6A75CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{EC3F2C6E-EBEB-D241-B7D2-0FE322E63B24}"/>
+    <workbookView xWindow="42920" yWindow="480" windowWidth="24280" windowHeight="21120" activeTab="2" xr2:uid="{EC3F2C6E-EBEB-D241-B7D2-0FE322E63B24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$A$10</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$A$11</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Sheet3!$B$11:$D$11</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet3!$B$2:$D$2</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet3!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet3!$B$4:$D$4</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet3!$B$5:$D$5</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet3!$B$6:$D$6</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet3!$B$7:$D$7</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet3!$B$8:$D$8</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet3!$B$13:$D$13</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet3!$B$14:$D$14</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet3!$B$15:$D$15</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet3!$B$2:$D$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet3!$B$3:$D$3</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet3!$B$4:$D$4</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet3!$B$5:$D$5</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">Sheet3!$B$9:$D$9</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">Sheet3!$A$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$A$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$A$13</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">Sheet3!$A$11</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet3!$A$3</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet3!$A$4</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet3!$A$5</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet3!$A$6</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet3!$A$7</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet3!$A$8</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet3!$A$13</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet3!$A$14</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet3!$A$15</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet3!$A$3</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet3!$A$4</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet3!$A$5</definedName>
     <definedName name="_xlchart.v1.27" hidden="1">Sheet3!$A$9</definedName>
     <definedName name="_xlchart.v1.28" hidden="1">Sheet3!$B$10:$D$10</definedName>
     <definedName name="_xlchart.v1.29" hidden="1">Sheet3!$B$11:$D$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$A$4</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet3!$B$2:$D$2</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet3!$B$3:$D$3</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet3!$B$4:$D$4</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet3!$B$5:$D$5</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet3!$B$6:$D$6</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet3!$B$7:$D$7</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet3!$B$8:$D$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$A$14</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet3!$B$13:$D$13</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet3!$B$14:$D$14</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet3!$B$15:$D$15</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet3!$B$2:$D$2</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet3!$B$3:$D$3</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Sheet3!$B$4:$D$4</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Sheet3!$B$5:$D$5</definedName>
     <definedName name="_xlchart.v1.37" hidden="1">Sheet3!$B$9:$D$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$A$5</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet3!$A$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet3!$A$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet3!$A$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$A$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet3!$A$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet3!$A$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet3!$A$5</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Sheet3!$A$9</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Sheet3!$B$10:$D$10</definedName>
   </definedNames>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>NEMA</t>
   </si>
@@ -228,6 +229,45 @@
   </si>
   <si>
     <t>Revenue</t>
+  </si>
+  <si>
+    <t>Flash Transfer Relays (4)</t>
+  </si>
+  <si>
+    <t>Auxiliary Display Unit (1)</t>
+  </si>
+  <si>
+    <t>Cabinet Monitor Unit (1)</t>
+  </si>
+  <si>
+    <t>High Density Switch Pack Flasher Unit (1)</t>
+  </si>
+  <si>
+    <t>Serial Interface Unit (1)</t>
+  </si>
+  <si>
+    <t>Cabinet Power Supply (1)</t>
+  </si>
+  <si>
+    <t>Load Switch (1)</t>
+  </si>
+  <si>
+    <t>Enhanced TS2 Monitor (1)</t>
+  </si>
+  <si>
+    <t>Bus Interface Unit (1)</t>
+  </si>
+  <si>
+    <t>TS2 Power Supply (1)</t>
+  </si>
+  <si>
+    <t>TS2 Rack Detector (1)</t>
+  </si>
+  <si>
+    <t>170/2070 Monitor (1)</t>
+  </si>
+  <si>
+    <t>Caltrans Power Supply (1)</t>
   </si>
 </sst>
 </file>
@@ -5583,7 +5623,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>Expense Breakdown for ATC /</a:t>
+              <a:t>Per-Unit Expense Breakdown for ATC /</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" baseline="0"/>
@@ -5637,7 +5677,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Component 1</c:v>
+                  <c:v>Auxiliary Display Unit (1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5669,10 +5709,7 @@
                 <a:pPr>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5719,7 +5756,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5739,7 +5776,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Component 2</c:v>
+                  <c:v>Cabinet Monitor Unit (1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5755,6 +5792,46 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-BB55-874B-90EE-47B2098D01A4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5769,12 +5846,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5821,7 +5895,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5841,7 +5915,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Component 3</c:v>
+                  <c:v>High Density Switch Pack Flasher Unit (1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5923,7 +5997,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5939,11 +6013,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$6</c:f>
+              <c:f>Sheet3!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Component X</c:v>
+                  <c:v>Enhanced TS2 Monitor (1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6020,12 +6094,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$6:$D$6</c:f>
+              <c:f>Sheet3!$B$9:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6041,11 +6115,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$7</c:f>
+              <c:f>Sheet3!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Component Y</c:v>
+                  <c:v>Bus Interface Unit (1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6122,12 +6196,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$7:$D$7</c:f>
+              <c:f>Sheet3!$B$10:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6143,11 +6217,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$8</c:f>
+              <c:f>Sheet3!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Component Z</c:v>
+                  <c:v>TS2 Power Supply (1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6224,12 +6298,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$8:$D$8</c:f>
+              <c:f>Sheet3!$B$11:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6245,11 +6319,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$9</c:f>
+              <c:f>Sheet3!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Component A</c:v>
+                  <c:v>170/2070 Monitor (1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6281,7 +6355,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -6325,12 +6399,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$9:$D$9</c:f>
+              <c:f>Sheet3!$B$13:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6346,11 +6420,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$10</c:f>
+              <c:f>Sheet3!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Component B</c:v>
+                  <c:v>Caltrans Power Supply (1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6382,7 +6456,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -6426,12 +6500,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$10:$D$10</c:f>
+              <c:f>Sheet3!$B$14:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6447,11 +6521,11 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$11</c:f>
+              <c:f>Sheet3!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Component C</c:v>
+                  <c:v>Flash Transfer Relays (4)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6483,7 +6557,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -6527,12 +6601,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$11:$D$11</c:f>
+              <c:f>Sheet3!$B$15:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6540,6 +6614,467 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-BB55-874B-90EE-47B2098D01A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TS2 Rack Detector (1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-BB55-874B-90EE-47B2098D01A4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="1">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-BB55-874B-90EE-47B2098D01A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serial Interface Unit (1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-BB55-874B-90EE-47B2098D01A4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-BB55-874B-90EE-47B2098D01A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cabinet Power Supply (1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-BB55-874B-90EE-47B2098D01A4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>391</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-BB55-874B-90EE-47B2098D01A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Load Switch (1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9756376546478557E-3"/>
+                  <c:y val="-4.8865615517257191E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-BB55-874B-90EE-47B2098D01A4}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-BB55-874B-90EE-47B2098D01A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6551,7 +7086,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="50"/>
         <c:overlap val="100"/>
         <c:axId val="244229791"/>
         <c:axId val="244231519"/>
@@ -6628,7 +7163,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7138,7 +7673,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$O$6</c:f>
+              <c:f>Sheet3!$O$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7219,7 +7754,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$P$6:$R$6</c:f>
+              <c:f>Sheet3!$P$9:$R$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7240,7 +7775,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$O$7</c:f>
+              <c:f>Sheet3!$O$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7321,7 +7856,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$P$7:$R$7</c:f>
+              <c:f>Sheet3!$P$10:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7342,7 +7877,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$O$8</c:f>
+              <c:f>Sheet3!$O$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7423,7 +7958,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$P$8:$R$8</c:f>
+              <c:f>Sheet3!$P$11:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7444,7 +7979,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$O$9</c:f>
+              <c:f>Sheet3!$O$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7524,7 +8059,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$P$9:$R$9</c:f>
+              <c:f>Sheet3!$P$13:$R$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7545,7 +8080,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$O$10</c:f>
+              <c:f>Sheet3!$O$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7625,7 +8160,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$P$10:$R$10</c:f>
+              <c:f>Sheet3!$P$14:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7646,7 +8181,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$O$11</c:f>
+              <c:f>Sheet3!$O$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7726,7 +8261,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$P$11:$R$11</c:f>
+              <c:f>Sheet3!$P$15:$R$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -12132,15 +12667,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>556078</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>16328</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12169,13 +12704,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13149,15 +13684,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BEF7A3F-BA52-5646-80FA-CC9D25350988}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -13196,10 +13731,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>436</v>
       </c>
       <c r="O3" t="s">
         <v>39</v>
@@ -13210,10 +13745,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>588</v>
       </c>
       <c r="O4" t="s">
         <v>40</v>
@@ -13224,10 +13759,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="O5" t="s">
         <v>41</v>
@@ -13238,85 +13773,118 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="O6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="B6">
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="O7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="O8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>926</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>231</v>
       </c>
       <c r="O10" t="s">
-        <v>46</v>
-      </c>
-      <c r="R10">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>300</v>
+      </c>
+      <c r="O11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13">
+        <v>777</v>
+      </c>
+      <c r="O13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>217</v>
+      </c>
+      <c r="O14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <f>4*25</f>
+        <v>100</v>
+      </c>
+      <c r="O15" t="s">
         <v>47</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="O11" t="s">
-        <v>47</v>
-      </c>
-      <c r="R11">
+      <c r="R15">
         <v>2</v>
       </c>
     </row>
@@ -13328,4 +13896,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F90660-157F-4146-8638-9DA82B442AED}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>